--- a/docs/mcode-r4/obf-RadiationDosePerFraction-extension.xlsx
+++ b/docs/mcode-r4/obf-RadiationDosePerFraction-extension.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$13</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="109">
   <si>
     <t>Path</t>
   </si>
@@ -137,7 +137,7 @@
     <t>RadiationDosePerFraction</t>
   </si>
   <si>
-    <t>The total number of treatment sessions (fractions) administered during a course of radiation therapy therapy. A fraction is a portion of the total radiation dose, delivered as a series of treatments that make up the full course of radiotherapy. (source: LOINC)</t>
+    <t>The amount of radiation administered during a single session (fraction) of radiation therapy therapy.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -219,10 +219,10 @@
     <t>http://hl7.org/fhir/us/mcode/StructureDefinition/obf-RadiationDosePerFraction-extension</t>
   </si>
   <si>
-    <t>Extension.valueRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio
+    <t>Extension.valueQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
@@ -233,6 +233,126 @@
   </si>
   <si>
     <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.valueQuantity.id</t>
+  </si>
+  <si>
+    <t>Extension.valueQuantity.extension</t>
+  </si>
+  <si>
+    <t>Extension.valueQuantity.value</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>Extension.valueQuantity.comparator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.0</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>Extension.valueQuantity.unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>Extension.valueQuantity.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>Extension.valueQuantity.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>cGy</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
   </si>
 </sst>
 </file>
@@ -381,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -390,7 +510,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.0078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -413,14 +533,14 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="52.97265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="19.953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -1023,8 +1143,705 @@
         <v>36</v>
       </c>
     </row>
+    <row r="7" hidden="true">
+      <c r="A7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" hidden="true">
+      <c r="A8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
+      <c r="A9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Q10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI6">
+  <autoFilter ref="A1:AI13">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1034,7 +1851,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI5">
+  <conditionalFormatting sqref="A2:AI12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
